--- a/Target-2023.xlsx
+++ b/Target-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Main-App\Sales-report-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F3E323-9399-483B-BCA0-A9D3FE020965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D672D14D-C28A-462A-961B-9245044E3B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{10432A9C-1853-401F-80E9-A807FD257649}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -177,16 +177,16 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,51 +560,51 @@
         <v>6</v>
       </c>
       <c r="B2" s="7">
-        <f>SUM(B3:B7)</f>
-        <v>22929267.893333334</v>
+        <f t="shared" ref="B2:M2" si="0">SUM(B3:B7)</f>
+        <v>20376117.893333334</v>
       </c>
       <c r="C2" s="7">
-        <f>SUM(C3:C7)</f>
+        <f t="shared" si="0"/>
         <v>19719717.893333334</v>
       </c>
       <c r="D2" s="7">
-        <f>SUM(D3:D7)</f>
+        <f t="shared" si="0"/>
         <v>17573123.833333336</v>
       </c>
       <c r="E2" s="7">
-        <f>SUM(E3:E7)</f>
+        <f t="shared" si="0"/>
         <v>17151869.293333337</v>
       </c>
       <c r="F2" s="7">
-        <f>SUM(F3:F7)</f>
+        <f t="shared" si="0"/>
         <v>16170328.593333334</v>
       </c>
       <c r="G2" s="7">
-        <f>SUM(G3:G7)</f>
+        <f t="shared" si="0"/>
         <v>15253898.693333333</v>
       </c>
       <c r="H2" s="7">
-        <f>SUM(H3:H7)</f>
+        <f t="shared" si="0"/>
         <v>20869045.693333335</v>
       </c>
       <c r="I2" s="7">
-        <f>SUM(I3:I7)</f>
+        <f t="shared" si="0"/>
         <v>20171590.433333334</v>
       </c>
       <c r="J2" s="7">
-        <f>SUM(J3:J7)</f>
+        <f t="shared" si="0"/>
         <v>18526070.133333333</v>
       </c>
       <c r="K2" s="7">
-        <f>SUM(K3:K7)</f>
+        <f t="shared" si="0"/>
         <v>22113123.853333332</v>
       </c>
       <c r="L2" s="7">
-        <f>SUM(L3:L7)</f>
+        <f t="shared" si="0"/>
         <v>21685552.813333333</v>
       </c>
       <c r="M2" s="7">
-        <f>SUM(M3:M7)</f>
+        <f t="shared" si="0"/>
         <v>18778773.573333334</v>
       </c>
     </row>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>6303150</v>
+        <v>3750000</v>
       </c>
       <c r="C4" s="8">
         <v>4155600</v>

--- a/Target-2023.xlsx
+++ b/Target-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Main-App\Sales-report-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D672D14D-C28A-462A-961B-9245044E3B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9493C916-9991-4EC9-9AC2-BB2EEF74983E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{10432A9C-1853-401F-80E9-A807FD257649}"/>
+    <workbookView xWindow="2940" yWindow="3168" windowWidth="17280" windowHeight="8880" xr2:uid="{10432A9C-1853-401F-80E9-A807FD257649}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,7 +505,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +561,7 @@
       </c>
       <c r="B2" s="7">
         <f t="shared" ref="B2:M2" si="0">SUM(B3:B7)</f>
-        <v>20376117.893333334</v>
+        <v>19026117.893333334</v>
       </c>
       <c r="C2" s="7">
         <f t="shared" si="0"/>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>3750000</v>
+        <v>2400000</v>
       </c>
       <c r="C4" s="8">
         <v>4155600</v>

--- a/Target-2023.xlsx
+++ b/Target-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Main-App\Sales-report-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9493C916-9991-4EC9-9AC2-BB2EEF74983E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FB201C-B3EA-4D74-8903-2050BE51E5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="3168" windowWidth="17280" windowHeight="8880" xr2:uid="{10432A9C-1853-401F-80E9-A807FD257649}"/>
   </bookViews>
@@ -505,7 +505,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +561,7 @@
       </c>
       <c r="B2" s="7">
         <f t="shared" ref="B2:M2" si="0">SUM(B3:B7)</f>
-        <v>19026117.893333334</v>
+        <v>20826117.893333334</v>
       </c>
       <c r="C2" s="7">
         <f t="shared" si="0"/>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>2400000</v>
+        <v>4200000</v>
       </c>
       <c r="C4" s="8">
         <v>4155600</v>

--- a/Target-2023.xlsx
+++ b/Target-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Main-App\Sales-report-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FB201C-B3EA-4D74-8903-2050BE51E5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740CA37C-42F3-4332-ABF5-DE688CC7338E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="3168" windowWidth="17280" windowHeight="8880" xr2:uid="{10432A9C-1853-401F-80E9-A807FD257649}"/>
+    <workbookView xWindow="28692" yWindow="5880" windowWidth="20712" windowHeight="11016" xr2:uid="{10432A9C-1853-401F-80E9-A807FD257649}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +561,7 @@
       </c>
       <c r="B2" s="7">
         <f t="shared" ref="B2:M2" si="0">SUM(B3:B7)</f>
-        <v>20826117.893333334</v>
+        <v>20326117.893333334</v>
       </c>
       <c r="C2" s="7">
         <f t="shared" si="0"/>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8">
-        <v>4200000</v>
+        <v>3700000</v>
       </c>
       <c r="C4" s="8">
         <v>4155600</v>

--- a/Target-2023.xlsx
+++ b/Target-2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Main-App\Sales-report-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740CA37C-42F3-4332-ABF5-DE688CC7338E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4202AB81-FBF5-445D-AB5F-A8007286A8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="5880" windowWidth="20712" windowHeight="11016" xr2:uid="{10432A9C-1853-401F-80E9-A807FD257649}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,7 +505,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,7 +565,7 @@
       </c>
       <c r="C2" s="7">
         <f t="shared" si="0"/>
-        <v>19719717.893333334</v>
+        <v>18064117.893333334</v>
       </c>
       <c r="D2" s="7">
         <f t="shared" si="0"/>
@@ -658,7 +658,7 @@
         <v>3700000</v>
       </c>
       <c r="C4" s="8">
-        <v>4155600</v>
+        <v>2500000</v>
       </c>
       <c r="D4" s="8">
         <v>3569850</v>

--- a/Target-2023.xlsx
+++ b/Target-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Main-App\Sales-report-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4202AB81-FBF5-445D-AB5F-A8007286A8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A326453-3DB5-4C6F-B94A-C06A1B1243DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="5880" windowWidth="20712" windowHeight="11016" xr2:uid="{10432A9C-1853-401F-80E9-A807FD257649}"/>
   </bookViews>
@@ -133,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +143,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -187,6 +193,7 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -505,7 +512,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,7 +576,7 @@
       </c>
       <c r="D2" s="7">
         <f t="shared" si="0"/>
-        <v>17573123.833333336</v>
+        <v>16003273.833333334</v>
       </c>
       <c r="E2" s="7">
         <f t="shared" si="0"/>
@@ -654,14 +661,14 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>3700000</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>2500000</v>
       </c>
-      <c r="D4" s="8">
-        <v>3569850</v>
+      <c r="D4" s="9">
+        <v>2000000</v>
       </c>
       <c r="E4" s="8">
         <v>3518210</v>

--- a/Target-2023.xlsx
+++ b/Target-2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\SIM-Main-App\Sales-report-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A326453-3DB5-4C6F-B94A-C06A1B1243DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444241FD-C75C-4410-AD85-539DB2478033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="5880" windowWidth="20712" windowHeight="11016" xr2:uid="{10432A9C-1853-401F-80E9-A807FD257649}"/>
   </bookViews>
@@ -41,58 +41,58 @@
     <t>BU</t>
   </si>
   <si>
+    <t>MOLD</t>
+  </si>
+  <si>
+    <t>Steel Bush</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>OneSIM</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
     <t>MASS</t>
-  </si>
-  <si>
-    <t>MOLD</t>
-  </si>
-  <si>
-    <t>Steel Bush</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>OneSIM</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -133,24 +133,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -186,14 +174,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -512,323 +500,349 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8">
+        <f>SUM(B3:B7)</f>
+        <v>14123810</v>
+      </c>
+      <c r="C2" s="8">
+        <f>SUM(C3:C7)</f>
+        <v>15894420</v>
+      </c>
+      <c r="D2" s="8">
+        <f>SUM(D3:D7)</f>
+        <v>14038820</v>
+      </c>
+      <c r="E2" s="8">
+        <f>SUM(E3:E7)</f>
+        <v>5489090</v>
+      </c>
+      <c r="F2" s="8">
+        <f>SUM(F3:F7)</f>
+        <v>11900000</v>
+      </c>
+      <c r="G2" s="8">
+        <f>SUM(G3:G7)</f>
+        <v>11000000</v>
+      </c>
+      <c r="H2" s="8">
+        <f>SUM(H3:H7)</f>
+        <v>12962000</v>
+      </c>
+      <c r="I2" s="8">
+        <f>SUM(I3:I7)</f>
+        <v>11900000</v>
+      </c>
+      <c r="J2" s="8">
+        <f>SUM(J3:J7)</f>
+        <v>11500000</v>
+      </c>
+      <c r="K2" s="8">
+        <f>SUM(K3:K7)</f>
+        <v>14462000</v>
+      </c>
+      <c r="L2" s="8">
+        <f>SUM(L3:L7)</f>
+        <v>14900000</v>
+      </c>
+      <c r="M2" s="8">
+        <f>SUM(M3:M7)</f>
+        <v>14000000</v>
+      </c>
+      <c r="N2" s="6">
+        <f>SUM(B2:M2)+D7</f>
+        <v>152170140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7">
-        <f t="shared" ref="B2:M2" si="0">SUM(B3:B7)</f>
-        <v>20326117.893333334</v>
-      </c>
-      <c r="C2" s="7">
-        <f t="shared" si="0"/>
-        <v>18064117.893333334</v>
-      </c>
-      <c r="D2" s="7">
-        <f t="shared" si="0"/>
-        <v>16003273.833333334</v>
-      </c>
-      <c r="E2" s="7">
-        <f t="shared" si="0"/>
-        <v>17151869.293333337</v>
-      </c>
-      <c r="F2" s="7">
-        <f t="shared" si="0"/>
-        <v>16170328.593333334</v>
-      </c>
-      <c r="G2" s="7">
-        <f t="shared" si="0"/>
-        <v>15253898.693333333</v>
-      </c>
-      <c r="H2" s="7">
-        <f t="shared" si="0"/>
-        <v>20869045.693333335</v>
-      </c>
-      <c r="I2" s="7">
-        <f t="shared" si="0"/>
-        <v>20171590.433333334</v>
-      </c>
-      <c r="J2" s="7">
-        <f t="shared" si="0"/>
-        <v>18526070.133333333</v>
-      </c>
-      <c r="K2" s="7">
-        <f t="shared" si="0"/>
-        <v>22113123.853333332</v>
-      </c>
-      <c r="L2" s="7">
-        <f t="shared" si="0"/>
-        <v>21685552.813333333</v>
-      </c>
-      <c r="M2" s="7">
-        <f t="shared" si="0"/>
-        <v>18778773.573333334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>14664117.893333334</v>
-      </c>
-      <c r="C3" s="4">
-        <v>14664117.893333334</v>
-      </c>
-      <c r="D3" s="4">
-        <v>14003273.833333334</v>
-      </c>
-      <c r="E3" s="4">
-        <v>11671659.293333335</v>
-      </c>
-      <c r="F3" s="4">
-        <v>11712648.593333334</v>
-      </c>
-      <c r="G3" s="4">
-        <v>11633898.693333333</v>
-      </c>
-      <c r="H3" s="4">
-        <v>14227045.693333333</v>
-      </c>
-      <c r="I3" s="4">
-        <v>14591590.433333334</v>
-      </c>
-      <c r="J3" s="4">
-        <v>14446070.133333335</v>
-      </c>
-      <c r="K3" s="4">
-        <v>15471123.853333334</v>
-      </c>
-      <c r="L3" s="4">
-        <v>16105552.813333334</v>
-      </c>
-      <c r="M3" s="4">
-        <v>14098773.573333334</v>
-      </c>
-      <c r="N3" s="1"/>
+      <c r="B3" s="9">
+        <v>12000000</v>
+      </c>
+      <c r="C3" s="9">
+        <v>12000000</v>
+      </c>
+      <c r="D3" s="9">
+        <v>12000000</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3000000</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="G3" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="H3" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="I3" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="J3" s="9">
+        <v>5500000</v>
+      </c>
+      <c r="K3" s="9">
+        <v>6500000</v>
+      </c>
+      <c r="L3" s="9">
+        <v>8000000</v>
+      </c>
+      <c r="M3" s="9">
+        <v>8000000</v>
+      </c>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="9">
-        <v>3700000</v>
+        <v>2123810</v>
       </c>
       <c r="C4" s="9">
-        <v>2500000</v>
+        <v>1058420</v>
       </c>
       <c r="D4" s="9">
-        <v>2000000</v>
-      </c>
-      <c r="E4" s="8">
-        <v>3518210</v>
-      </c>
-      <c r="F4" s="8">
-        <v>3557680</v>
-      </c>
-      <c r="G4" s="8">
-        <v>3620000</v>
-      </c>
-      <c r="H4" s="8">
-        <v>4680000</v>
-      </c>
-      <c r="I4" s="8">
-        <v>4680000</v>
-      </c>
-      <c r="J4" s="8">
-        <v>4080000</v>
-      </c>
-      <c r="K4" s="8">
-        <v>4680000</v>
-      </c>
-      <c r="L4" s="8">
-        <v>4680000</v>
-      </c>
-      <c r="M4" s="8">
-        <v>4680000</v>
+        <v>2038820</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2489090</v>
+      </c>
+      <c r="F4" s="9">
+        <v>6000000</v>
+      </c>
+      <c r="G4" s="9">
+        <v>6000000</v>
+      </c>
+      <c r="H4" s="9">
+        <v>6000000</v>
+      </c>
+      <c r="I4" s="9">
+        <v>6000000</v>
+      </c>
+      <c r="J4" s="9">
+        <v>6000000</v>
+      </c>
+      <c r="K4" s="9">
+        <v>6000000</v>
+      </c>
+      <c r="L4" s="9">
+        <v>6000000</v>
+      </c>
+      <c r="M4" s="9">
+        <v>6000000</v>
+      </c>
+      <c r="N4" s="6">
+        <f>SUM(B4:M4)+D9</f>
+        <v>55710140</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2836000</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>900000</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
         <v>1962000</v>
       </c>
-      <c r="C5" s="4">
+      <c r="I5" s="9">
         <v>900000</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
         <v>1962000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="L5" s="9">
         <v>900000</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1962000</v>
-      </c>
-      <c r="I5" s="4">
-        <v>900000</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1962000</v>
-      </c>
-      <c r="L5" s="4">
-        <v>900000</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <f>SUM(B5:M5)+D10</f>
+        <v>9460000</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" ref="N6:N7" si="0">SUM(B6:M6)+D11</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
+      <c r="D11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
